--- a/vacancie_01/_static/applicants/metadata3.xlsx
+++ b/vacancie_01/_static/applicants/metadata3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21540b8bb60256b0/Bachelorarbeit/docs/job_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{55050E14-E149-4C1E-88D5-FFCE983D53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB37EEA-3587-4BEA-9A72-7B96BDBAB3EA}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{55050E14-E149-4C1E-88D5-FFCE983D53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD547A9-9D9E-44D2-9474-B4865DB670C9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4105B825-04A9-43F3-958D-3B952C1641F7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4105B825-04A9-43F3-958D-3B952C1641F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="226">
   <si>
     <t>Verfügbar ab</t>
   </si>
@@ -683,9 +683,6 @@
     <t>'Sichere Office-Anwendung'</t>
   </si>
   <si>
-    <t>'C2/Muttersprache'</t>
-  </si>
-  <si>
     <t>B2'</t>
   </si>
   <si>
@@ -714,6 +711,12 @@
   </si>
   <si>
     <t>Ausbildung Mechatronik'</t>
+  </si>
+  <si>
+    <t>Muttersprache'</t>
+  </si>
+  <si>
+    <t>C2'</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,9 +786,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,7 +817,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1121,38 +1133,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81ADCB1-8217-4FCE-9761-D105F968275E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" customWidth="1"/>
-    <col min="7" max="7" width="37.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" customWidth="1"/>
-    <col min="11" max="11" width="25.81640625" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="22.90625" customWidth="1"/>
-    <col min="14" max="14" width="26.453125" customWidth="1"/>
-    <col min="15" max="15" width="30.26953125" customWidth="1"/>
-    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="35" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1242,13 +1255,13 @@
       <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -1261,7 +1274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1437,13 +1450,13 @@
       <c r="O5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="8" t="s">
         <v>205</v>
       </c>
       <c r="S5">
@@ -1456,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1502,13 +1515,13 @@
       <c r="O6" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="8" t="s">
         <v>205</v>
       </c>
       <c r="S6">
@@ -1521,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1586,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -1651,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1697,13 +1710,13 @@
       <c r="O9" t="s">
         <v>122</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="8" t="s">
         <v>176</v>
       </c>
       <c r="S9">
@@ -1716,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1762,14 +1775,14 @@
       <c r="O10" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -1781,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1827,13 +1840,13 @@
       <c r="O11" t="s">
         <v>134</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="8" t="s">
         <v>175</v>
       </c>
       <c r="S11">
@@ -1846,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1892,13 +1905,13 @@
       <c r="O12" t="s">
         <v>137</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="6" t="s">
         <v>211</v>
       </c>
       <c r="S12">
@@ -1911,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1957,14 +1970,14 @@
       <c r="O13" t="s">
         <v>139</v>
       </c>
-      <c r="P13" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="P13" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="R13" t="s">
-        <v>214</v>
+      <c r="R13" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="S13">
         <v>8</v>
@@ -1976,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2022,14 +2035,14 @@
       <c r="O14" t="s">
         <v>139</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>215</v>
+      <c r="R14" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="S14">
         <v>3</v>
@@ -2041,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2087,14 +2100,14 @@
       <c r="O15" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="R15" t="s">
-        <v>217</v>
+      <c r="R15" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="S15">
         <v>4</v>
@@ -2106,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -2152,13 +2165,13 @@
       <c r="O16" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="10" t="s">
         <v>171</v>
       </c>
       <c r="S16">
@@ -2171,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -2217,14 +2230,14 @@
       <c r="O17" t="s">
         <v>150</v>
       </c>
-      <c r="P17" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="4" t="s">
+      <c r="P17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="R17" t="s">
-        <v>216</v>
+      <c r="R17" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="S17">
         <v>2</v>
@@ -2236,7 +2249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2282,14 +2295,14 @@
       <c r="O18" t="s">
         <v>155</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="Q18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R18" t="s">
-        <v>221</v>
+      <c r="Q18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="S18">
         <v>2</v>
@@ -2301,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -2347,13 +2360,13 @@
       <c r="O19" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S19">
@@ -2366,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2412,13 +2425,13 @@
       <c r="O20" t="s">
         <v>161</v>
       </c>
-      <c r="P20" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>222</v>
-      </c>
-      <c r="R20" s="4" t="s">
+      <c r="P20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>195</v>
       </c>
       <c r="S20">
@@ -2431,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2477,13 +2490,13 @@
       <c r="O21" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="9" t="s">
         <v>168</v>
       </c>
       <c r="S21">
@@ -2496,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2542,13 +2555,13 @@
       <c r="O22" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S22">
@@ -2561,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2626,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2691,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2756,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2886,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2951,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -3143,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -3208,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -3338,26 +3351,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P42" s="2"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P42" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U35" xr:uid="{F81ADCB1-8217-4FCE-9761-D105F968275E}"/>
+  <autoFilter ref="A1:U35" xr:uid="{F81ADCB1-8217-4FCE-9761-D105F968275E}">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="predefined"/>
+        <filter val="requirement_need_defined_by"/>
+        <filter val="technical"/>
+        <filter val="tender"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>